--- a/WalletData.xlsx
+++ b/WalletData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D62E89-E112-411E-903E-193FCCD9FE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC72445-A8A7-432A-B10C-7D4D3EAE2291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1710" windowWidth="18075" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddToken" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DeleteWalletError!$E$1:$E$82</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7067" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7067" uniqueCount="318">
   <si>
     <t>TestNotes</t>
   </si>
@@ -979,6 +979,12 @@
   </si>
   <si>
     <t>12/25</t>
+  </si>
+  <si>
+    <t>AbaNumber is not allowed, please remove this field</t>
+  </si>
+  <si>
+    <t>Unable to save Payment Account Token</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -3191,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -20610,8 +20616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="O62" workbookViewId="0">
+      <selection activeCell="AG79" sqref="AG79:AG82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21309,17 +21315,14 @@
       <c r="AC8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="4">
-        <v>258147369</v>
-      </c>
       <c r="AE8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AF8" s="4">
-        <v>10019</v>
+        <v>50008</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="AH8" s="5" t="s">
         <v>35</v>
@@ -21396,17 +21399,14 @@
       <c r="AC9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="4">
-        <v>258147369</v>
-      </c>
       <c r="AE9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AF9" s="4">
-        <v>10019</v>
+        <v>50008</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="AH9" s="5" t="s">
         <v>35</v>
@@ -23140,10 +23140,10 @@
         <v>44</v>
       </c>
       <c r="AF29" s="4">
-        <v>10019</v>
+        <v>50058</v>
       </c>
       <c r="AG29" s="4" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="AH29" s="5" t="s">
         <v>35</v>
@@ -23222,10 +23222,10 @@
         <v>44</v>
       </c>
       <c r="AF30" s="4">
-        <v>10019</v>
+        <v>50058</v>
       </c>
       <c r="AG30" s="4" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="AH30" s="5" t="s">
         <v>35</v>
@@ -23468,7 +23468,7 @@
         <v>99999</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="AH33" s="5" t="s">
         <v>35</v>
@@ -23552,7 +23552,7 @@
         <v>99999</v>
       </c>
       <c r="AG34" s="4" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="AH34" s="5" t="s">
         <v>35</v>
@@ -25426,7 +25426,7 @@
         <v>99999</v>
       </c>
       <c r="AG57" s="4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AH57" s="5" t="s">
         <v>35</v>
@@ -25510,7 +25510,7 @@
         <v>99999</v>
       </c>
       <c r="AG58" s="4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AH58" s="5" t="s">
         <v>35</v>
@@ -27414,7 +27414,7 @@
         <v>99999</v>
       </c>
       <c r="AG81" s="4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AH81" s="5" t="s">
         <v>35</v>
@@ -27504,7 +27504,7 @@
         <v>99999</v>
       </c>
       <c r="AG82" s="4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AH82" s="5" t="s">
         <v>35</v>
